--- a/03.HackerEarth/01.Practice/01.BasicProgramming/Book1.xlsx
+++ b/03.HackerEarth/01.Practice/01.BasicProgramming/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rehan.haider\Documents\GitHub\CompetitiveProgrammingSolutions\03.HackerEarth\01.Practice\01.BasicProgramming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rehan\Documents\GitHub\CompetitiveProgrammingSolutions\03.HackerEarth\01.Practice\01.BasicProgramming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAF5497-31BE-45A3-9FFB-B37512C82F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0652FED6-AA81-4868-AD31-27160A6A0F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{52D8460A-AE33-47EB-B2C7-0A9D082801C0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{52D8460A-AE33-47EB-B2C7-0A9D082801C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>pass</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>yGap</t>
-  </si>
-  <si>
-    <t>remdays</t>
   </si>
   <si>
     <t>X</t>
@@ -82,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +93,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0E141E"/>
+      <name val="Var(--font-family-input)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,9 +121,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,15 +445,20 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,9 +486,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="P1">
         <v>0</v>
       </c>
@@ -484,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
@@ -497,23 +506,23 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>47681877</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="3">
+        <v>703555978</v>
+      </c>
+      <c r="F2" s="3">
         <v>3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>38766</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>521258504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -522,42 +531,43 @@
       </c>
       <c r="C3">
         <f>P2</f>
-        <v>38766</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <f>I3/2</f>
-        <v>38765</v>
-      </c>
-      <c r="E3">
+        <f>(G3-H3)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
         <f>E2-I3</f>
-        <v>47604347</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
+        <v>648955503</v>
+      </c>
+      <c r="F3" s="3">
+        <f>Q2</f>
+        <v>521258504</v>
       </c>
       <c r="G3">
         <f>C3</f>
-        <v>38766</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <f>(G3-H3)*2</f>
-        <v>77530</v>
+        <f>(G3-H3)*10920095</f>
+        <v>54600475</v>
       </c>
       <c r="O3">
         <f>O2+1</f>
         <v>1</v>
       </c>
       <c r="P3">
-        <v>1379928</v>
+        <v>19</v>
       </c>
       <c r="Q3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>817458014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -565,655 +575,204 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>C3</f>
-        <v>38766</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <f>D3+1</f>
-        <v>38766</v>
-      </c>
-      <c r="E4">
-        <f>E3-F4</f>
-        <v>47604345</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
+        <f>+D3+1</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <f>E3-F3</f>
+        <v>127696999</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="O4">
         <f t="shared" ref="O4:O11" si="0">O3+1</f>
         <v>2</v>
       </c>
       <c r="P4">
-        <v>1583188</v>
+        <v>27</v>
       </c>
       <c r="Q4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>47956104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5">
-        <f>P3</f>
-        <v>1379928</v>
-      </c>
-      <c r="D5">
-        <f>D4+I5/2</f>
-        <v>1379927</v>
-      </c>
-      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
         <f>E4-I5</f>
-        <v>44922023</v>
-      </c>
-      <c r="F5">
+        <v>-3344141</v>
+      </c>
+      <c r="F5" s="3">
         <f>Q3</f>
-        <v>5</v>
+        <v>817458014</v>
       </c>
       <c r="G5">
         <f>P3</f>
-        <v>1379928</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <f>P2+1</f>
-        <v>38767</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <f>(G5-H5)*2</f>
-        <v>2682322</v>
+        <f>(G5-H5)*10920095</f>
+        <v>131041140</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P5">
-        <v>8607689</v>
+        <v>31</v>
       </c>
       <c r="Q5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f>C5</f>
-        <v>1379928</v>
-      </c>
-      <c r="D6">
-        <f>D5+1</f>
-        <v>1379928</v>
-      </c>
-      <c r="E6">
-        <f>E5-F6</f>
-        <v>44922018</v>
-      </c>
-      <c r="F6">
-        <f>F5</f>
-        <v>5</v>
-      </c>
+        <v>456138850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="O6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P6">
-        <v>15957802</v>
+        <v>35</v>
       </c>
       <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f>P4</f>
-        <v>1583188</v>
-      </c>
-      <c r="D7">
-        <f>D6+I7/2</f>
-        <v>1583187</v>
-      </c>
-      <c r="E7">
-        <f>E6-I7</f>
-        <v>44515500</v>
-      </c>
-      <c r="F7">
-        <f>Q4</f>
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <f>P4</f>
-        <v>1583188</v>
-      </c>
-      <c r="H7">
-        <f>P3+1</f>
-        <v>1379929</v>
-      </c>
-      <c r="I7">
-        <f>(G7-H7)*2</f>
-        <v>406518</v>
-      </c>
+        <v>256610222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="O7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P7">
-        <v>16386579</v>
+        <v>39</v>
       </c>
       <c r="Q7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <f>C7</f>
-        <v>1583188</v>
-      </c>
-      <c r="D8">
-        <f>D7+1</f>
-        <v>1583188</v>
-      </c>
-      <c r="E8">
-        <f>E7-F8</f>
-        <v>44515497</v>
-      </c>
-      <c r="F8">
-        <f>F7</f>
-        <v>3</v>
-      </c>
+        <v>394117650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="O8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P8">
-        <v>17176565</v>
+        <v>51</v>
       </c>
       <c r="Q8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f>P5</f>
-        <v>8607689</v>
-      </c>
-      <c r="D9">
-        <f>D8+I9/2</f>
-        <v>8607688</v>
-      </c>
-      <c r="E9">
-        <f>E8-I9</f>
-        <v>30466497</v>
-      </c>
-      <c r="F9">
-        <f>Q5</f>
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <f>C9</f>
-        <v>8607689</v>
-      </c>
-      <c r="H9">
-        <f>C8+1</f>
-        <v>1583189</v>
-      </c>
-      <c r="I9">
-        <f>(G9-H9)*2</f>
-        <v>14049000</v>
-      </c>
+        <v>212512693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="O9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P9">
-        <v>19628054</v>
+        <v>60</v>
       </c>
       <c r="Q9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f>C9</f>
-        <v>8607689</v>
-      </c>
-      <c r="D10">
-        <f>D9+1</f>
-        <v>8607689</v>
-      </c>
-      <c r="E10">
-        <f>E9-F10</f>
-        <v>30466494</v>
-      </c>
-      <c r="F10">
-        <f>F9</f>
-        <v>3</v>
-      </c>
+        <v>714354619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="O10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="P10">
-        <v>20201350</v>
+        <v>65</v>
       </c>
       <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>B10</f>
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <f>P6</f>
-        <v>15957802</v>
-      </c>
-      <c r="D11">
-        <f>D10+I11/2</f>
-        <v>15957801</v>
-      </c>
-      <c r="E11">
-        <f>E10-I11</f>
-        <v>15766270</v>
-      </c>
-      <c r="F11">
-        <f>Q6</f>
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <f>C11</f>
-        <v>15957802</v>
-      </c>
-      <c r="H11">
-        <f>C10+1</f>
-        <v>8607690</v>
-      </c>
-      <c r="I11">
-        <f>(G11-H11)*2</f>
-        <v>14700224</v>
-      </c>
+        <v>178807286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="O11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="P11">
-        <v>22001263</v>
+        <v>481805972</v>
       </c>
       <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <f>C11</f>
-        <v>15957802</v>
-      </c>
-      <c r="D12">
-        <f>D11+1</f>
-        <v>15957802</v>
-      </c>
-      <c r="E12">
-        <f>E11-F12</f>
-        <v>15766267</v>
-      </c>
-      <c r="F12">
-        <f>F11</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f>B12</f>
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f>P7</f>
-        <v>16386579</v>
-      </c>
-      <c r="D13">
-        <f>D12+I13/2</f>
-        <v>16386578</v>
-      </c>
-      <c r="E13">
-        <f>E12-I13</f>
-        <v>14908715</v>
-      </c>
-      <c r="F13">
-        <f>Q7</f>
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <f>C13</f>
-        <v>16386579</v>
-      </c>
-      <c r="H13">
-        <f>C12+1</f>
-        <v>15957803</v>
-      </c>
-      <c r="I13">
-        <f>(G13-H13)*2</f>
-        <v>857552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <f>C13</f>
-        <v>16386579</v>
-      </c>
-      <c r="D14">
-        <f>D13+1</f>
-        <v>16386579</v>
-      </c>
-      <c r="E14">
-        <f>E13-F14</f>
-        <v>14908710</v>
-      </c>
-      <c r="F14">
-        <f>F13</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <f>P8</f>
-        <v>17176565</v>
-      </c>
-      <c r="D15">
-        <f>D14+I15/2</f>
-        <v>17176564</v>
-      </c>
-      <c r="E15">
-        <f>E14-I15</f>
-        <v>13328740</v>
-      </c>
-      <c r="F15">
-        <f>Q8</f>
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <f>C15</f>
-        <v>17176565</v>
-      </c>
-      <c r="H15">
-        <f>G13+1</f>
-        <v>16386580</v>
-      </c>
-      <c r="I15">
-        <f>(G15-H15)*2</f>
-        <v>1579970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <f>C15</f>
-        <v>17176565</v>
-      </c>
-      <c r="D16">
-        <f>D15+1</f>
-        <v>17176565</v>
-      </c>
-      <c r="E16">
-        <f>E15-F16</f>
-        <v>13328737</v>
-      </c>
-      <c r="F16">
-        <f>F15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <f>P9</f>
-        <v>19628054</v>
-      </c>
-      <c r="D17">
-        <f>D16+I17/2</f>
-        <v>19628053</v>
-      </c>
-      <c r="E17">
-        <f>E16-I17</f>
-        <v>8425761</v>
-      </c>
-      <c r="F17">
-        <f>Q9</f>
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <f>C17</f>
-        <v>19628054</v>
-      </c>
-      <c r="H17">
-        <f>G15+1</f>
-        <v>17176566</v>
-      </c>
-      <c r="I17">
-        <f>(G17-H17)*2</f>
-        <v>4902976</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <f>C17</f>
-        <v>19628054</v>
-      </c>
-      <c r="D18">
-        <f>D17+1</f>
-        <v>19628054</v>
-      </c>
-      <c r="E18">
-        <f>E17-F18</f>
-        <v>8425757</v>
-      </c>
-      <c r="F18">
-        <f>F17</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <f>P10</f>
-        <v>20201350</v>
-      </c>
-      <c r="D19">
-        <f>D18+I19/2</f>
-        <v>20201349</v>
-      </c>
-      <c r="E19">
-        <f>E18-I19</f>
-        <v>7279167</v>
-      </c>
-      <c r="F19">
-        <f>Q10</f>
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <f>C19</f>
-        <v>20201350</v>
-      </c>
-      <c r="H19">
-        <f>G17+1</f>
-        <v>19628055</v>
-      </c>
-      <c r="I19">
-        <f>(G19-H19)*2</f>
-        <v>1146590</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <f>C19</f>
-        <v>20201350</v>
-      </c>
-      <c r="D20">
-        <f>D19+1</f>
-        <v>20201350</v>
-      </c>
-      <c r="E20">
-        <f>E19-F20</f>
-        <v>7279162</v>
-      </c>
-      <c r="F20">
-        <f>F19</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <f>P11</f>
-        <v>22001263</v>
-      </c>
-      <c r="D21">
-        <f>D20+I21/2</f>
-        <v>22001262</v>
-      </c>
-      <c r="E21">
-        <f>E20-I21</f>
-        <v>3679338</v>
-      </c>
-      <c r="F21">
-        <f>Q11</f>
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <f>C21</f>
-        <v>22001263</v>
-      </c>
-      <c r="H21">
-        <f>G19+1</f>
-        <v>20201351</v>
-      </c>
-      <c r="I21">
-        <f>(G21-H21)*2</f>
-        <v>3599824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <f>P11</f>
-        <v>22001263</v>
-      </c>
-      <c r="D22">
-        <f>D21+1</f>
-        <v>22001263</v>
-      </c>
-      <c r="E22">
-        <f>E21-F22</f>
-        <v>3679333</v>
-      </c>
-      <c r="F22">
-        <f>Q11</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>521107216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="4:6">
       <c r="D24">
         <f>D22+ROUNDUP(E22/2,0)</f>
-        <v>23840930</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C5:F10" formula="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1225,13 +784,13 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="10" width="17.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -1260,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1287,13 +846,13 @@
         <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1333,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1363,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1397,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
